--- a/data/trans_bre/P24_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_6_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>26,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,97</t>
+          <t>30,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,62</t>
+          <t>25,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,9</t>
+          <t>27,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>70,71%</t>
+          <t>27,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>164,15%</t>
+          <t>148,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>175,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>64,77%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>95,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>91,14%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 31,29</t>
+          <t>8,16; 44,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,13; 41,86</t>
+          <t>11,17; 48,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 33,16</t>
+          <t>4,5; 50,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 39,98</t>
+          <t>7,16; 51,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,98; 184,39</t>
+          <t>3,35; 56,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,83; 342,49</t>
+          <t>22,74; 525,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 119,36</t>
+          <t>33,22; 577,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,56; 233,65</t>
+          <t>6,74; 232,71</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16,31; 383,32</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 412,55</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,26</t>
+          <t>23,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>18,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,38</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>122,56%</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>101,45%</t>
+          <t>170,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>108,31%</t>
+          <t>109,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,27%</t>
+          <t>81,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>36,89%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 25,49</t>
+          <t>13,98; 32,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 23,13</t>
+          <t>9,39; 28,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 24,26</t>
+          <t>5,12; 23,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 24,9</t>
+          <t>-2,94; 20,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,16; 217,7</t>
+          <t>-2,95; 23,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,66; 176,05</t>
+          <t>73,74; 339,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,96; 184,04</t>
+          <t>40,35; 229,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,36; 156,44</t>
+          <t>19,31; 168,19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; 91,74</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 91,1</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>75,3%</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>48,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>-2,05%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38,51%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33,79%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 19,07</t>
+          <t>-6,79; 13,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 17,4</t>
+          <t>-1,84; 16,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 15,61</t>
+          <t>-10,83; 10,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 13,65</t>
+          <t>-2,37; 16,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,24; 156,57</t>
+          <t>-4,13; 17,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 146,27</t>
+          <t>-25,9; 81,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 125,35</t>
+          <t>-9,96; 144,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 83,58</t>
+          <t>-37,43; 66,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 121,81</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-14,37; 105,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>101,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>76,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 19,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 20,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,19; 141,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,34; 152,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,74; 116,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 111,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15,76</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,78</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,16</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,04</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12,95</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>92,38%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>94,08%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44,9%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 22,08</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 22,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 17,05</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 18,71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 22,29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>45,74; 156,89</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43,69; 166,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,34; 90,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,86; 87,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 92,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_6_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>26,57</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>30,61</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>25,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>27,08</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>27,26</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>148,21%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>175,61%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>64,77%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>95,47%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>91,14%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>26.56741677288785</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>30.45032619023378</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>26.33739153190664</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>29.19958809651035</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>26.58626008827374</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.482135151097852</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.730021052049037</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6469318316328436</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.021289007896218</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8814313228661542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 44,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>11,17; 48,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 50,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,16; 51,13</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 56,65</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>22,74; 525,83</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>33,22; 577,46</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>6,74; 232,71</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>16,31; 383,32</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>4,09; 412,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>8.160589755920062</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>10.47233623901063</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.575018504804138</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>8.440254412540538</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>2.120214956474078</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.2273612417769664</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.3366967280578073</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.08825279710076511</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.2122485360272278</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.01284785172979885</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>44.16588994912329</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>47.91891670147428</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>50.17942628909897</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>51.36918598048554</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>56.45840317298985</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>5.258296504792462</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>5.550835216603361</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.00467564258417</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.697752889222172</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>4.12806603414481</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>23,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,07</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,71</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>170,06%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>109,33%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>81,23%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>35,09%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>36,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>13,98; 32,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 28,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 23,28</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 20,74</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 23,0</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>73,74; 339,09</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>40,35; 229,97</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>19,31; 168,19</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-9,78; 91,74</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-9,57; 91,1</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>23.04689195857878</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>20.08322796486273</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14.98915487670575</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.03412584876361</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.87521730806664</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.700584740804692</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.236958029831853</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.8482017709341505</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3611935383810153</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3434414948944379</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,56</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,21%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>48,57%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-2,05%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>38,51%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>33,79%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>13.97803766521729</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>10.2573482141178</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.672390972537539</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.590527724410293</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.229677009021826</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.7374425359350443</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.4912358428988861</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2087701972846259</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.0890542936640779</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1274145605124965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 13,2</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 16,56</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 10,41</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 16,51</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 17,25</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-25,9; 81,47</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-9,96; 144,45</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-37,43; 66,16</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-9,54; 121,81</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-14,37; 105,52</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>32.01618421182194</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>30.30364084895331</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23.82815435850044</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.53968894338123</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>21.6538676927224</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.390949564857195</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.614640403552611</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.784547368556454</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.9220383281031853</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.8812345145467601</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.655747824450184</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.806950737497365</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.147354445056992</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.039605103246643</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.36355157411053</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1721284966041227</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.473813678837011</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.05047505251222306</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3707550206346919</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3294084769738806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.792148497847959</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.709223501514725</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.30578893311383</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.576534056464297</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-4.528962199898582</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2590338244896297</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1970771174839092</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3910142437424775</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1145392861534296</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1565423373305435</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.20046641921995</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.70147587349797</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.01310353198125</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.10798964490187</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>17.11713466998079</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.8147381903682162</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.381848470787453</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6270262426719144</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.192791150223336</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.03152601631339</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>15,76</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>15,78</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,16</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,04</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,95</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>92,38%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>94,08%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>44,9%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>43,74%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>45,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>9,21; 22,08</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,28; 22,44</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 17,05</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 18,71</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 22,29</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>45,74; 156,89</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>43,69; 166,02</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>14,34; 90,05</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>9,86; 87,77</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 92,21</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>15.76093530718926</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>16.5010656829888</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.56447084108416</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.51699686849963</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>12.43144925637726</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.9238322330939747</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9989127594593853</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4682809627296719</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4637036369026088</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4390779023358936</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>9.206715462398009</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9.476614189271464</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.060082068242505</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.801680583379161</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.879018708650082</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.4574381894963325</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.4353056479505747</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1593107814939704</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1142207647795224</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.07696226745675286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>22.08281156058327</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>23.04755880864584</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.44583927278033</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.08901121122497</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>20.8698086181824</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.568946078459175</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.779611680545623</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9197808317087438</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.9094316252501533</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9118452722147897</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
